--- a/dados/rodadas/todas_rodadas-naotratado.xlsx
+++ b/dados/rodadas/todas_rodadas-naotratado.xlsx
@@ -16474,7 +16474,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         </is>
       </c>
       <c r="H295" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         </is>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -17029,9 +17029,17 @@
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr"/>
+      <c r="F303" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>1–1</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>1.7</v>
+      </c>
       <c r="I303" t="inlineStr">
         <is>
           <t>Goiás</t>
@@ -17043,10 +17051,14 @@
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Anderson Daronco</t>
+        </is>
+      </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N303" t="inlineStr"/>
@@ -17075,24 +17087,38 @@
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
-      <c r="H304" t="inlineStr"/>
+      <c r="F304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>3–0</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I304" t="inlineStr">
         <is>
           <t>Grêmio</t>
         </is>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>47132</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>Estádio do Morumbi</t>
         </is>
       </c>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>André Luiz Skettino Policarpo Bento</t>
+        </is>
+      </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N304" t="inlineStr"/>
@@ -17121,24 +17147,38 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr"/>
+      <c r="F305" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2–0</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I305" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>44761</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>Itaipava Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Rodrigo José Pereira de Lima</t>
+        </is>
+      </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
@@ -17159,32 +17199,44 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr"/>
+          <t>Botafogo (RJ)</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>1–1</t>
+        </is>
+      </c>
+      <c r="H306" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Arena MRV</t>
-        </is>
-      </c>
-      <c r="L306" t="inlineStr"/>
+          <t>Estádio Nilton Santos</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Matheus Delgado Candançan</t>
+        </is>
+      </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
@@ -17210,27 +17262,39 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr"/>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>0–1</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>0.9</v>
+      </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Estádio José Pinheiro Borba</t>
-        </is>
-      </c>
-      <c r="L307" t="inlineStr"/>
+          <t>Arena MRV</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Ramon Abatti</t>
+        </is>
+      </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N307" t="inlineStr"/>
@@ -17256,27 +17320,39 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>7–1</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>1.6</v>
+      </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Estadio Jornalista Mário Filho</t>
-        </is>
-      </c>
-      <c r="L308" t="inlineStr"/>
+          <t>Estádio José Pinheiro Borba</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Paulo Zanovelli</t>
+        </is>
+      </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N308" t="inlineStr"/>
@@ -17297,32 +17373,46 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr"/>
-      <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>1–0</t>
+        </is>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>América (MG)</t>
-        </is>
-      </c>
-      <c r="J309" t="inlineStr"/>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>69473</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Neo Química Arena</t>
-        </is>
-      </c>
-      <c r="L309" t="inlineStr"/>
+          <t>Estadio Jornalista Mário Filho</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>Raphael Claus</t>
+        </is>
+      </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N309" t="inlineStr"/>
@@ -17348,27 +17438,41 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Coritiba</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr"/>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>1–1</t>
+        </is>
+      </c>
+      <c r="H310" t="n">
+        <v>0.7</v>
+      </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="J310" t="inlineStr"/>
+          <t>América (MG)</t>
+        </is>
+      </c>
+      <c r="J310" t="n">
+        <v>38121</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Estádio Major Antônio Couto Pereira</t>
-        </is>
-      </c>
-      <c r="L310" t="inlineStr"/>
+          <t>Neo Química Arena</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>Yuri Elino Ferreira da Cruz</t>
+        </is>
+      </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
@@ -17394,27 +17498,39 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Bragantino</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr"/>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>0–2</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Estádio Nabi Abi Chedid</t>
-        </is>
-      </c>
-      <c r="L311" t="inlineStr"/>
+          <t>Estádio Major Antônio Couto Pereira</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Rafael Rodrigo Klein</t>
+        </is>
+      </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N311" t="inlineStr"/>
@@ -17425,42 +17541,54 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr"/>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>1–0</t>
+        </is>
+      </c>
+      <c r="H312" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Estádio Nilton Santos</t>
-        </is>
-      </c>
-      <c r="L312" t="inlineStr"/>
+          <t>Estádio Nabi Abi Chedid</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>Wilton Pereira Sampaio</t>
+        </is>
+      </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N312" t="inlineStr"/>
@@ -17970,7 +18098,7 @@
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
@@ -17978,22 +18106,22 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Estádio Joaquim Américo Guimarães</t>
+          <t>Estadio Jornalista Mário Filho</t>
         </is>
       </c>
       <c r="L325" t="inlineStr"/>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>Match Postponed</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -18012,7 +18140,7 @@
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -18020,22 +18148,22 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Estádio Nilton Santos</t>
+          <t>Estádio Castelão</t>
         </is>
       </c>
       <c r="L326" t="inlineStr"/>
-      <c r="M326" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>Match Postponed</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -18051,10 +18179,14 @@
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>América (MG)</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
@@ -18062,11 +18194,15 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>Estádio Raimundo Sampaio</t>
+        </is>
+      </c>
       <c r="L327" t="inlineStr"/>
       <c r="M327" t="inlineStr">
         <is>
@@ -18089,10 +18225,14 @@
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
@@ -18100,13 +18240,13 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Neo Química Arena</t>
+          <t>Allianz Parque</t>
         </is>
       </c>
       <c r="L328" t="inlineStr"/>
@@ -18123,18 +18263,22 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr"/>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
@@ -18142,13 +18286,13 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Estadio Jornalista Mário Filho</t>
+          <t>Estádio Joaquim Américo Guimarães</t>
         </is>
       </c>
       <c r="L329" t="inlineStr"/>
@@ -18165,18 +18309,22 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr"/>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="F330" t="inlineStr"/>
@@ -18184,13 +18332,13 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Estádio José Pinheiro Borba</t>
+          <t>Estádio de Hailé Pinheiro</t>
         </is>
       </c>
       <c r="L330" t="inlineStr"/>
@@ -18207,18 +18355,22 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F331" t="inlineStr"/>
@@ -18226,13 +18378,13 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Estádio de Hailé Pinheiro</t>
+          <t>Neo Química Arena</t>
         </is>
       </c>
       <c r="L331" t="inlineStr"/>
@@ -18249,18 +18401,22 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr"/>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F332" t="inlineStr"/>
@@ -18268,13 +18424,13 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Estádio Raimundo Sampaio</t>
+          <t>Estádio José Pinheiro Borba</t>
         </is>
       </c>
       <c r="L332" t="inlineStr"/>
@@ -18291,18 +18447,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -18310,13 +18470,13 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Allianz Parque</t>
+          <t>Estádio Nilton Santos</t>
         </is>
       </c>
       <c r="L333" t="inlineStr"/>
@@ -18341,10 +18501,14 @@
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -18352,13 +18516,13 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Estádio Castelão</t>
+          <t>Estádio Governador Magalhães Pinto</t>
         </is>
       </c>
       <c r="L334" t="inlineStr"/>
@@ -18391,18 +18555,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr"/>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -18410,13 +18578,13 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Estádio Major Antônio Couto Pereira</t>
+          <t>Itaipava Arena Fonte Nova</t>
         </is>
       </c>
       <c r="L336" t="inlineStr"/>
@@ -18441,10 +18609,14 @@
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -18452,13 +18624,13 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Itaipava Arena Fonte Nova</t>
+          <t>Neo Química Arena</t>
         </is>
       </c>
       <c r="L337" t="inlineStr"/>
@@ -18483,10 +18655,14 @@
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -18494,13 +18670,13 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>América (MG)</t>
         </is>
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Estádio do Morumbi</t>
+          <t>Estádio José Pinheiro Borba</t>
         </is>
       </c>
       <c r="L338" t="inlineStr"/>
@@ -18525,10 +18701,14 @@
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
@@ -18536,13 +18716,13 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Neo Química Arena</t>
+          <t>Estádio Major Antônio Couto Pereira</t>
         </is>
       </c>
       <c r="L339" t="inlineStr"/>
@@ -18567,10 +18747,14 @@
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -18578,13 +18762,13 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Estádio de Hailé Pinheiro</t>
+          <t>Estadio Jornalista Mário Filho</t>
         </is>
       </c>
       <c r="L340" t="inlineStr"/>
@@ -18601,18 +18785,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="F341" t="inlineStr"/>
@@ -18620,11 +18808,15 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>Arena Pantanal</t>
+        </is>
+      </c>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr">
         <is>
@@ -18639,18 +18831,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="F342" t="inlineStr"/>
@@ -18658,13 +18854,13 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Estádio José Pinheiro Borba</t>
+          <t>Estádio de Hailé Pinheiro</t>
         </is>
       </c>
       <c r="L342" t="inlineStr"/>
@@ -18681,18 +18877,22 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F343" t="inlineStr"/>
@@ -18700,13 +18900,13 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Arena Pantanal</t>
+          <t>Estádio do Morumbi</t>
         </is>
       </c>
       <c r="L343" t="inlineStr"/>
@@ -18731,10 +18931,14 @@
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="F344" t="inlineStr"/>
@@ -18742,13 +18946,13 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Estádio Nilton Santos</t>
+          <t>Estádio Governador Magalhães Pinto</t>
         </is>
       </c>
       <c r="L344" t="inlineStr"/>
@@ -18773,10 +18977,14 @@
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
@@ -18784,13 +18992,13 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Estadio Jornalista Mário Filho</t>
+          <t>Estádio Nilton Santos</t>
         </is>
       </c>
       <c r="L345" t="inlineStr"/>
@@ -18834,7 +19042,7 @@
       <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F347" t="inlineStr"/>
@@ -18842,22 +19050,22 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Allianz Parque</t>
+          <t>Estadio Jornalista Mário Filho</t>
         </is>
       </c>
       <c r="L347" t="inlineStr"/>
-      <c r="M347" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>Match Postponed</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -18873,10 +19081,14 @@
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr"/>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
@@ -18884,13 +19096,13 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Estádio Raimundo Sampaio</t>
+          <t>Arena do Grêmio</t>
         </is>
       </c>
       <c r="L348" t="inlineStr"/>
@@ -18915,10 +19127,14 @@
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>América (MG)</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -18926,13 +19142,13 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Estádio Club de Regatas Vasco da Gama</t>
+          <t>Estádio Raimundo Sampaio</t>
         </is>
       </c>
       <c r="L349" t="inlineStr"/>
@@ -18949,18 +19165,22 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F350" t="inlineStr"/>
@@ -18968,11 +19188,15 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Estádio Raimundo Sampaio</t>
+        </is>
+      </c>
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="inlineStr">
         <is>
@@ -18987,18 +19211,22 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr"/>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="F351" t="inlineStr"/>
@@ -19006,13 +19234,13 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Estádio Raimundo Sampaio</t>
+          <t>Estádio Club de Regatas Vasco da Gama</t>
         </is>
       </c>
       <c r="L351" t="inlineStr"/>
@@ -19029,18 +19257,22 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F352" t="inlineStr"/>
@@ -19048,13 +19280,13 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Estádio Major Antônio Couto Pereira</t>
+          <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
       <c r="L352" t="inlineStr"/>
@@ -19071,18 +19303,22 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr"/>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F353" t="inlineStr"/>
@@ -19090,13 +19326,13 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Estádio Castelão</t>
+          <t>Estádio Major Antônio Couto Pereira</t>
         </is>
       </c>
       <c r="L353" t="inlineStr"/>
@@ -19113,18 +19349,22 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F354" t="inlineStr"/>
@@ -19132,13 +19372,13 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Estádio Nabi Abi Chedid</t>
+          <t>Estádio Castelão</t>
         </is>
       </c>
       <c r="L354" t="inlineStr"/>
@@ -19163,10 +19403,14 @@
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F355" t="inlineStr"/>
@@ -19174,13 +19418,13 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Estádio Urbano Caldeira</t>
+          <t>Allianz Parque</t>
         </is>
       </c>
       <c r="L355" t="inlineStr"/>
@@ -19197,18 +19441,22 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F356" t="inlineStr"/>
@@ -19216,13 +19464,13 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Estadio Jornalista Mário Filho</t>
+          <t>Estádio Urbano Caldeira</t>
         </is>
       </c>
       <c r="L356" t="inlineStr"/>

--- a/dados/rodadas/todas_rodadas-naotratado.xlsx
+++ b/dados/rodadas/todas_rodadas-naotratado.xlsx
@@ -16244,7 +16244,11 @@
         </is>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>Arena MRV</t>
+        </is>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>Marcelo de Lima Henrique</t>
@@ -17038,7 +17042,7 @@
         </is>
       </c>
       <c r="H303" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
@@ -17088,7 +17092,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -17390,7 +17394,7 @@
         </is>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I309" t="inlineStr">
         <is>
@@ -17502,7 +17506,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -17648,12 +17652,12 @@
         </is>
       </c>
       <c r="L314" t="inlineStr"/>
-      <c r="M314" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>Match Postponed</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -17679,24 +17683,38 @@
           <t>Ath Paranaense</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr"/>
+      <c r="F315" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>3–2</t>
+        </is>
+      </c>
+      <c r="H315" t="n">
+        <v>0.9</v>
+      </c>
       <c r="I315" t="inlineStr">
         <is>
           <t>América (MG)</t>
         </is>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>20672</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>Estádio Joaquim Américo Guimarães</t>
         </is>
       </c>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>Anderson Daronco</t>
+        </is>
+      </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N315" t="inlineStr"/>
@@ -17725,24 +17743,38 @@
           <t>Bragantino</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
-      <c r="H316" t="inlineStr"/>
+      <c r="F316" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>1–2</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>1.6</v>
+      </c>
       <c r="I316" t="inlineStr">
         <is>
           <t>Atlético Mineiro</t>
         </is>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>5494</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Marcelo de Lima Henrique</t>
+        </is>
+      </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N316" t="inlineStr"/>
@@ -17771,9 +17803,17 @@
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr"/>
+      <c r="F317" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>5–3</t>
+        </is>
+      </c>
+      <c r="H317" t="n">
+        <v>0.6</v>
+      </c>
       <c r="I317" t="inlineStr">
         <is>
           <t>Goiás</t>
@@ -17785,10 +17825,14 @@
           <t>Estadio Jornalista Mário Filho</t>
         </is>
       </c>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>Leandro Pedro Vuaden</t>
+        </is>
+      </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N317" t="inlineStr"/>
@@ -17817,9 +17861,17 @@
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr"/>
+      <c r="F318" t="n">
+        <v>2</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>3–0</t>
+        </is>
+      </c>
+      <c r="H318" t="n">
+        <v>0.3</v>
+      </c>
       <c r="I318" t="inlineStr">
         <is>
           <t>Bahia</t>
@@ -17831,10 +17883,14 @@
           <t>Estádio Raimundo Sampaio</t>
         </is>
       </c>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Flavio de Souza</t>
+        </is>
+      </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N318" t="inlineStr"/>
@@ -17863,9 +17919,17 @@
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr"/>
+      <c r="F319" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>5–0</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I319" t="inlineStr">
         <is>
           <t>São Paulo</t>
@@ -17877,10 +17941,14 @@
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Raphael Claus</t>
+        </is>
+      </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N319" t="inlineStr"/>
@@ -17955,9 +18023,17 @@
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr"/>
+      <c r="F321" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>0–1</t>
+        </is>
+      </c>
+      <c r="H321" t="n">
+        <v>1.6</v>
+      </c>
       <c r="I321" t="inlineStr">
         <is>
           <t>Corinthians</t>
@@ -17969,10 +18045,14 @@
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>André Luiz Skettino Policarpo Bento</t>
+        </is>
+      </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
@@ -18001,20 +18081,36 @@
           <t>Grêmio</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr"/>
+      <c r="F322" t="n">
+        <v>1</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>3–2</t>
+        </is>
+      </c>
+      <c r="H322" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I322" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>Rodrigo José Pereira de Lima</t>
+        </is>
+      </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N322" t="inlineStr"/>
@@ -18025,12 +18121,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
